--- a/Test/MSA_info.xlsx
+++ b/Test/MSA_info.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Specification" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Dataset 1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dataset 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Dataset 3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Results" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t xml:space="preserve">Dataset 1</t>
   </si>
@@ -79,7 +83,28 @@
     <t xml:space="preserve">Mu</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">MaxAlign : NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimAl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxAlign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
 </sst>
 </file>
@@ -162,12 +187,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,24 +208,231 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458480" y="954360"/>
+          <a:ext cx="5822640" cy="4225320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7765920" cy="1280520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>761040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="286200" y="331200"/>
+          <a:ext cx="7795440" cy="1491120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1031760" y="2900160"/>
+          <a:ext cx="6737400" cy="860040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>667080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1527840" y="615600"/>
+          <a:ext cx="7273440" cy="1682280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
@@ -218,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -238,7 +466,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -259,7 +487,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -276,7 +504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -293,7 +521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -310,8 +538,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -327,8 +555,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -344,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
@@ -361,9 +589,158 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>19</v>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">1002</f>
+        <v>1002</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">C13+666</f>
+        <v>1668</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">D13+666</f>
+        <v>2334</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13+666</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -374,208 +751,212 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010DC3F76EE16FD48ADA1530DE95F616D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="531958a14a82138978ada17aca26078c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="68f58dd2-dd63-4128-853d-2848def27828" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="706e390b12a7e1f4b846cbd717c8dcaf" ns3:_="">
-    <xsd:import namespace="68f58dd2-dd63-4128-853d-2848def27828"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="68f58dd2-dd63-4128-853d-2848def27828" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4141386-FEE6-425C-B128-D977107537DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="68f58dd2-dd63-4128-853d-2848def27828"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B946D97C-26C4-4BB1-A782-B92E13CAA3AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99DCCCD1-0F1C-4E6B-AAA9-3BA6F026C066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="68f58dd2-dd63-4128-853d-2848def27828"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4.808</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4.827</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>281.731</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>285.386</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>307.237</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1220.556</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1872.125</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Test/MSA_info.xlsx
+++ b/Test/MSA_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t xml:space="preserve">Dataset 1</t>
   </si>
@@ -95,16 +95,28 @@
     <t xml:space="preserve">Custom</t>
   </si>
   <si>
+    <t xml:space="preserve">MaxAlign</t>
+  </si>
+  <si>
     <t xml:space="preserve">TrimAl</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxAlign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Runtime</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Non Gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conserved Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entropy Score</t>
   </si>
 </sst>
 </file>
@@ -187,13 +199,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -212,20 +228,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>424800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 5" descr=""/>
+        <xdr:cNvPr id="0" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -234,8 +250,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458480" y="954360"/>
-          <a:ext cx="5822640" cy="4225320"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7776720" cy="1279800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1360440"/>
+          <a:ext cx="6521400" cy="4224600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -255,19 +308,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>286200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>445320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:colOff>760320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -276,8 +329,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7765920" cy="1280520"/>
+          <a:off x="286200" y="331200"/>
+          <a:ext cx="7806240" cy="1490400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>489600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069560" y="1995840"/>
+          <a:ext cx="13269960" cy="4313880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -297,19 +387,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>229320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPr id="4" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -318,50 +408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="286200" y="331200"/>
-          <a:ext cx="7795440" cy="1491120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448560</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1031760" y="2900160"/>
-          <a:ext cx="6737400" cy="860040"/>
+          <a:off x="0" y="1456200"/>
+          <a:ext cx="6746760" cy="859320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,20 +423,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>766440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 4" descr=""/>
+        <xdr:cNvPr id="5" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -397,8 +445,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1527840" y="615600"/>
-          <a:ext cx="7273440" cy="1682280"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7283880" cy="1681560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>745560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2866320" y="969120"/>
+          <a:ext cx="7655400" cy="3604320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,7 +509,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -751,7 +836,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -762,11 +846,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -788,11 +872,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -840,10 +924,10 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,89 +952,391 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>1002</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>6.131</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>4.808</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>4.827</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="0" t="n">
         <v>1068</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>1668</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>281.731</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>285.386</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>307.237</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="0" t="n">
         <v>2034</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>2334</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>1220.556</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>1872.125</v>
       </c>
-      <c r="F4" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>941</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>941</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1706</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>66.49</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>98.78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="C14" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>99.99</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>96.32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+      <c r="C15" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+      <c r="C19" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+      <c r="C20" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>-241.83</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-271.28</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>-349.82</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2"/>
+      <c r="C24" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>-731.03</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>-1080.63</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>-815.43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2"/>
+      <c r="C25" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>-1349.36</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>-2066.42</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B23:B25"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test/MSA_info.xlsx
+++ b/Test/MSA_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t xml:space="preserve">Dataset 1</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original</t>
   </si>
   <si>
     <t xml:space="preserve">Remained</t>
@@ -208,7 +211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,9 +238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
+      <xdr:colOff>444240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -251,7 +254,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7776720" cy="1279800"/>
+          <a:ext cx="7782120" cy="1279440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -272,9 +275,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -288,7 +291,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1360440"/>
-          <a:ext cx="6521400" cy="4224600"/>
+          <a:ext cx="6526080" cy="4224240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>491040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7112160" y="691560"/>
+          <a:ext cx="7239600" cy="2466720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -314,13 +354,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:colOff>759960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPr id="3" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -330,7 +370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="286200" y="331200"/>
-          <a:ext cx="7806240" cy="1490400"/>
+          <a:ext cx="7811640" cy="1490040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,20 +384,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>489600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>429480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 6" descr=""/>
+        <xdr:cNvPr id="4" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -366,8 +406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1069560" y="1995840"/>
-          <a:ext cx="13269960" cy="4313880"/>
+          <a:off x="0" y="678960"/>
+          <a:ext cx="10213560" cy="3317400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,13 +433,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 1" descr=""/>
+        <xdr:cNvPr id="5" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -409,7 +449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1456200"/>
-          <a:ext cx="6746760" cy="859320"/>
+          <a:ext cx="6751440" cy="858960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,13 +470,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>766440</xdr:colOff>
+      <xdr:colOff>766080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr=""/>
+        <xdr:cNvPr id="6" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -446,7 +486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7283880" cy="1681560"/>
+          <a:ext cx="7288560" cy="1681200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,13 +507,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>745560</xdr:colOff>
+      <xdr:colOff>745200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPr id="7" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -482,8 +522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2866320" y="969120"/>
-          <a:ext cx="7655400" cy="3604320"/>
+          <a:off x="2868120" y="969120"/>
+          <a:ext cx="7661160" cy="3603960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,7 +549,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -846,11 +886,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -873,10 +913,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -927,7 +967,7 @@
       <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,13 +992,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.4"/>
@@ -1053,10 +1093,13 @@
       <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>102</v>
@@ -1071,6 +1114,9 @@
         <v>97</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -1091,6 +1137,9 @@
       <c r="G9" s="0" t="n">
         <v>1068</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>1068</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2"/>
@@ -1109,6 +1158,9 @@
       <c r="G10" s="0" t="n">
         <v>2034</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>1068</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
@@ -1126,10 +1178,13 @@
       <c r="G12" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>102</v>
@@ -1145,6 +1200,9 @@
       </c>
       <c r="G13" s="0" t="n">
         <v>98.78</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>46.73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,6 +1222,9 @@
       <c r="G14" s="0" t="n">
         <v>96.32</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2"/>
@@ -1182,6 +1243,9 @@
       <c r="G15" s="0" t="n">
         <v>93.3</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>7.24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
@@ -1199,10 +1263,13 @@
       <c r="G17" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H17" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>102</v>
@@ -1218,6 +1285,9 @@
       </c>
       <c r="G18" s="0" t="n">
         <v>0.21</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,6 +1307,9 @@
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
@@ -1255,6 +1328,9 @@
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
@@ -1272,10 +1348,13 @@
       <c r="G22" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>102</v>
@@ -1291,6 +1370,9 @@
       </c>
       <c r="G23" s="0" t="n">
         <v>-349.82</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>-456.99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,6 +1392,9 @@
       <c r="G24" s="0" t="n">
         <v>-815.43</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>-1542.62</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
@@ -1328,14 +1413,103 @@
       <c r="G25" s="0" t="n">
         <v>-2066.42</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>-3126.18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>976</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+      <c r="C29" s="0" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>11443</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1667</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>15987</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2"/>
+      <c r="C30" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2333</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>32453</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
